--- a/src/ExtFiles/STD/TripBot STD.xlsx
+++ b/src/ExtFiles/STD/TripBot STD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Guy\Study\HackerU - Automation\Code\Java\TripBot\src\ExtFiles\STD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76648C3B-F2BA-4376-9529-B3FE40C330B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AC3BA5-EFD9-4F2A-B38C-BE3E2522F02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Suite Name</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Pre Conditions</t>
   </si>
   <si>
-    <t>P1_Hotels</t>
-  </si>
-  <si>
     <t>Guy Roban</t>
   </si>
   <si>
@@ -85,6 +82,12 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Suite ID</t>
+  </si>
+  <si>
+    <t>Hotels</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,22 +144,37 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDD9EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5F86CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0C3E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -165,7 +183,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -173,16 +191,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -193,6 +220,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB0C3E6"/>
+      <color rgb="FFC2D1EC"/>
+      <color rgb="FF5F86CD"/>
+      <color rgb="FF7C9CD6"/>
+      <color rgb="FFCDD9EF"/>
+      <color rgb="FFA3B9E1"/>
+      <color rgb="FF7D9CD5"/>
+      <color rgb="FFCDD8EF"/>
+      <color rgb="FFB4C3E6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -467,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,94 +520,140 @@
     <col min="3" max="3" width="22" style="1"/>
     <col min="4" max="4" width="56.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1"/>
-    <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="22" style="1"/>
+    <col min="6" max="6" width="8.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1"/>
+    <col min="8" max="8" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="22" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" prompt="Select option" sqref="C8" xr:uid="{742F2C7F-C8DC-4DC8-B9E5-F0C3D74F623F}">
-      <formula1>$H$2:$H$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/ExtFiles/STD/TripBot STD.xlsx
+++ b/src/ExtFiles/STD/TripBot STD.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Guy\Study\HackerU - Automation\Code\Java\TripBot\src\ExtFiles\STD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AC3BA5-EFD9-4F2A-B38C-BE3E2522F02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66027983-FDF8-4658-A64E-78CF84B0D688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="P1_Hotels" sheetId="1" r:id="rId1"/>
+    <sheet name="TEMPLATE" sheetId="2" r:id="rId1"/>
+    <sheet name="P1_Hotels" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Suite Name</t>
   </si>
@@ -183,7 +184,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,9 +205,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -242,6 +240,118 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1501140</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C20324-1BC2-4390-86F7-F71FDAF5F6C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5646420" y="0"/>
+          <a:ext cx="1501140" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1501140</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2418D5C1-CACE-CD80-BA7C-B3361E8548AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5646420" y="0"/>
+          <a:ext cx="1501140" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,96 +616,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81465A96-F9BF-4E85-8CF1-FBE70E32B372}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="1"/>
-    <col min="2" max="2" width="60.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1"/>
-    <col min="4" max="4" width="56.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1"/>
-    <col min="6" max="6" width="8.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="1"/>
-    <col min="8" max="8" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="22" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="B1" s="6"/>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="B3" s="6"/>
       <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" s="6"/>
       <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -613,7 +707,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -621,7 +715,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -629,7 +723,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -637,7 +731,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -645,7 +739,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -654,7 +748,171 @@
       <c r="F14" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C10:C14" xr:uid="{AE56C890-00C3-4374-B2D6-2D5E2479DF8C}">
+      <formula1>$H$2:$H$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22" style="1"/>
+    <col min="2" max="2" width="60.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1"/>
+    <col min="4" max="4" width="56.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1"/>
+    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1"/>
+    <col min="8" max="8" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="22" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C10:C14" xr:uid="{E52004E0-A582-400F-B8F2-40DCB0D5F362}">
+      <formula1>$H$2:$H$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>